--- a/Actividad 3/L04_Medidas_posicion.xlsx
+++ b/Actividad 3/L04_Medidas_posicion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1E2B48-5815-4541-9C43-DC824AB81D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B82084-9723-40D2-9E6E-3BFB4568493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="127">
   <si>
     <t>Región</t>
   </si>
@@ -422,6 +422,85 @@
   <si>
     <t>Se interpreta iwal q la mediana</t>
   </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>1,3-2,3</t>
+  </si>
+  <si>
+    <t>2,3-3,3</t>
+  </si>
+  <si>
+    <t>3,3-4,3</t>
+  </si>
+  <si>
+    <t>4,3-5,3</t>
+  </si>
+  <si>
+    <t>5,3-6,3</t>
+  </si>
+  <si>
+    <t>6,3-7,3</t>
+  </si>
+  <si>
+    <t>1,3-1,8</t>
+  </si>
+  <si>
+    <t>1,8-2,3</t>
+  </si>
+  <si>
+    <t>2,3-2,8</t>
+  </si>
+  <si>
+    <t>2,8-3,3</t>
+  </si>
+  <si>
+    <t>3,3-3,8</t>
+  </si>
+  <si>
+    <t>3,8-4,3</t>
+  </si>
+  <si>
+    <t>4,3-4,8</t>
+  </si>
+  <si>
+    <t>4,8-5,3</t>
+  </si>
+  <si>
+    <t>5,3-5,8</t>
+  </si>
+  <si>
+    <t>5,8-6,3</t>
+  </si>
+  <si>
+    <t>6,3-6,8</t>
+  </si>
+  <si>
+    <t>6,8-7,3</t>
+  </si>
+  <si>
+    <t>Cantidad de notas</t>
+  </si>
+  <si>
+    <t>notas &lt;= 5,1</t>
+  </si>
+  <si>
+    <t>notas &lt;= 5,2</t>
+  </si>
+  <si>
+    <t>notas &lt;= 5,3</t>
+  </si>
+  <si>
+    <t>Se observa que la forma del histograma no es simétrica, sin embargo, las medidas de tendencia central si se encuentran aprox. En el centro de los datos.
+El cambio de amplitud no altera la distribución de estas medidas, pero notamos mayor cantidad de intervalos en una amplitud menor.</t>
+  </si>
+  <si>
+    <t>El 60% de los estudiantes de álgebra obtienen una nota menor o igual a 6,4 en la actividad en linea 1</t>
+  </si>
+  <si>
+    <t>Los alumnos que obtuvieron entre un 1,1 y un 4,4</t>
+  </si>
 </sst>
 </file>
 
@@ -430,7 +509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,8 +678,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,8 +718,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -918,12 +1029,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1051,14 +1188,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,11 +1209,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,12 +1263,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1123,66 +1293,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1193,28 +1317,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,16 +1356,75 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1275,6 +1446,2492 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Distribución de Notas Examen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análisis de datos'!$D$3:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1,3-2,3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2,3-3,3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3,3-4,3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4,3-5,3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5,3-6,3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6,3-7,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análisis de datos'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C95E-4543-BB4B-8F0EA104137E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="996214287"/>
+        <c:axId val="996215951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="996214287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Notas Examen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996215951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="996215951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad de notas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996214287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Distribución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> de Notas Examen</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análisis de datos'!$D$16:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1,3-1,8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1,8-2,3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2,3-2,8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2,8-3,3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3,3-3,8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3,8-4,3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4,3-4,8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4,8-5,3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5,3-5,8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5,8-6,3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6,3-6,8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6,8-7,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análisis de datos'!$E$16:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E7B-4C25-A5CE-9EBBF8FA7075}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="996213039"/>
+        <c:axId val="996213455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="996213039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Notas Examen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996213455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="996213455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad de notas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996213039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457B80F5-7008-4D29-8294-A694A29BE516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6003</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1487141</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1242</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D2A349-E3A0-466C-A94E-8579960C4E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>854948</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>865532</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E27F109-A417-4449-B449-D8DC17B86F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9849861" y="336367"/>
+          <a:ext cx="10584" cy="1449916"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>886701</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>901518</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E296B1-0E7A-47C8-B747-76B9684A7AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9881614" y="2954683"/>
+          <a:ext cx="14817" cy="2194798"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>950664</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>961248</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208BDA4B-733A-48E4-9F52-5354E402AF27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9945577" y="338667"/>
+          <a:ext cx="10584" cy="1449916"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1045086</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1055670</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D32003-DF9F-4DC3-96C1-65CDF3707E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10039999" y="341980"/>
+          <a:ext cx="10584" cy="1449916"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="99FF66"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1040398</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1055215</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E41458-EBB3-46F0-8B18-E71B3FB8B687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10035311" y="2956983"/>
+          <a:ext cx="14817" cy="2194798"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="99FF66"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>969171</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>94515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>983988</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACAAC6F-8720-4064-A8FC-E82CDF6A3A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9964084" y="2960298"/>
+          <a:ext cx="14817" cy="2194798"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1600,8 +4257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1614,170 +4271,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="83"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="83"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="86"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45"/>
@@ -1798,98 +4455,98 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="71"/>
+      <c r="G21" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="69"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="68">
+      <c r="D22" s="74"/>
+      <c r="E22" s="72">
         <f>AVERAGE('Base 1'!L:L)</f>
         <v>5.0513565891472787</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68" t="s">
+      <c r="F22" s="72"/>
+      <c r="G22" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="68"/>
+      <c r="H22" s="72"/>
     </row>
     <row r="23" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="72">
         <f>MODE('Base 1'!L:L)</f>
         <v>5.3</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68" t="s">
+      <c r="F23" s="72"/>
+      <c r="G23" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="68"/>
+      <c r="H23" s="72"/>
     </row>
     <row r="24" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="95">
+      <c r="E24" s="73">
         <f>MEDIAN('Base 1'!L:L)</f>
         <v>5.2</v>
       </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="68" t="s">
+      <c r="F24" s="73"/>
+      <c r="G24" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="68"/>
+      <c r="H24" s="72"/>
     </row>
     <row r="25" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68">
+      <c r="D25" s="75"/>
+      <c r="E25" s="72">
         <f>PERCENTILE('Base 1'!L:L,50%)</f>
         <v>5.2</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68" t="s">
+      <c r="F25" s="72"/>
+      <c r="G25" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="68"/>
+      <c r="H25" s="72"/>
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="48"/>
@@ -1898,173 +4555,188 @@
       <c r="J26" s="48"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
+      <c r="B30" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="131"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="134"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="134"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-    </row>
-    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="134"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="132"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="134"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="134"/>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="134"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="134"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="134"/>
     </row>
     <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
     </row>
     <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="134"/>
     </row>
     <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="137"/>
     </row>
     <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
     </row>
     <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="47"/>
       <c r="F43" s="47"/>
       <c r="G43" s="48"/>
@@ -2080,17 +4752,17 @@
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
       <c r="K45" s="42"/>
     </row>
     <row r="46" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2105,144 +4777,155 @@
       <c r="J46" s="46"/>
     </row>
     <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="90" t="s">
+      <c r="C47" s="64"/>
+      <c r="D47" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="92"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="67"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
+      <c r="B48" s="68">
+        <f>PERCENTILE('Base 1'!E:E,60%)</f>
+        <v>6.4</v>
+      </c>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
     </row>
     <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
       <c r="K52" s="42"/>
     </row>
     <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
     </row>
     <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
     </row>
     <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="70"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="72"/>
+      <c r="B56" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="80"/>
     </row>
     <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="73"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="74"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="9">
+        <f>PERCENTILE('Base 1'!I:I,25%)</f>
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="73"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="74"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="82"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="75"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="77"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="85"/>
     </row>
     <row r="60" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="43"/>
@@ -2267,22 +4950,24 @@
       <c r="J61" s="43"/>
     </row>
     <row r="62" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
       <c r="K62" s="42"/>
     </row>
     <row r="63" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="78"/>
+      <c r="B64" s="138">
+        <v>0.17</v>
+      </c>
       <c r="C64" s="79"/>
       <c r="D64" s="79"/>
       <c r="E64" s="79"/>
@@ -2294,25 +4979,29 @@
     </row>
     <row r="65" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="81"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="83"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="139"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="139"/>
+      <c r="J65" s="82"/>
+      <c r="K65" s="9">
+        <f>PERCENTILE('Base 1'!I:I,17%)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="84"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="86"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="85"/>
     </row>
     <row r="67" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="45"/>
@@ -2337,51 +5026,51 @@
       <c r="J68" s="45"/>
     </row>
     <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
       <c r="K69" s="42"/>
     </row>
     <row r="70" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="64"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="70"/>
     </row>
     <row r="71" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
     </row>
     <row r="72" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
     </row>
     <row r="73" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="10"/>
@@ -2391,36 +5080,67 @@
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="51"/>
+      <c r="B74" s="138">
+        <v>0.49</v>
+      </c>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="80"/>
     </row>
     <row r="75" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="52"/>
-      <c r="J75" s="53"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="139"/>
+      <c r="H75" s="139"/>
+      <c r="I75" s="139"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="9">
+        <f>PERCENTILE('Base 1'!I:I,51%)</f>
+        <v>5.6</v>
+      </c>
     </row>
     <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="56"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="85"/>
     </row>
     <row r="77" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="34">
+    <mergeCell ref="B74:J76"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B30:J41"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B27:J29"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B56:J59"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="B64:J66"/>
+    <mergeCell ref="B69:J72"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B52:J55"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:J47"/>
@@ -2437,21 +5157,6 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B56:J59"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="B64:J66"/>
-    <mergeCell ref="B69:J72"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B52:J55"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B27:J29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2490,17 +5195,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2516,17 +5221,17 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="1"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -2539,30 +5244,30 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
       <c r="L8" s="18"/>
       <c r="M8" s="6"/>
     </row>
@@ -2580,15 +5285,15 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="7"/>
       <c r="L10" s="18"/>
     </row>
@@ -2597,17 +5302,17 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -2620,79 +5325,79 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="93"/>
       <c r="K14" s="20"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="20"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="93"/>
     </row>
     <row r="19" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="60"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
       <c r="K20" s="35"/>
       <c r="M20" s="5"/>
     </row>
@@ -2701,15 +5406,15 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
       <c r="K22" s="7"/>
       <c r="M22" s="5"/>
     </row>
@@ -2718,31 +5423,31 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
       <c r="K24" s="33"/>
       <c r="L24" s="16"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
       <c r="K25" s="33"/>
       <c r="L25" s="16"/>
       <c r="M25" s="5"/>
@@ -2752,128 +5457,128 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
       <c r="K27" s="7"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
       <c r="K32" s="33"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
       <c r="K33" s="33"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="92"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
     </row>
     <row r="37" spans="2:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L38" s="7"/>
@@ -2890,39 +5595,39 @@
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
       <c r="K43" s="7"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -2931,98 +5636,98 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
       <c r="K48" s="7"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
       <c r="K52" s="34"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
       <c r="K53" s="34"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="44"/>
@@ -3036,41 +5741,47 @@
       <c r="J55" s="44"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
       <c r="K58" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B7:J8"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B12:J12"/>
     <mergeCell ref="B41:J43"/>
     <mergeCell ref="B47:J49"/>
     <mergeCell ref="B52:J54"/>
@@ -3086,12 +5797,6 @@
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="B24:J25"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B7:J8"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B12:J12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{F3511CDE-2BB8-7B4F-9BE3-EED4E1CBE7BD}"/>
@@ -3120,41 +5825,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="30"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="30"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -3170,14 +5875,14 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -3208,20 +5913,20 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="103" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="116"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="114"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="103"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E10" s="24" t="s">
@@ -3396,42 +6101,42 @@
       <c r="F25" s="27"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="30" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
       <c r="K30" s="1"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
@@ -3445,15 +6150,15 @@
       <c r="J33" s="31"/>
     </row>
     <row r="34" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -3479,17 +6184,17 @@
       <c r="J36" s="31"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="112" t="s">
+      <c r="B37" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
       <c r="K37" s="28"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -3504,15 +6209,15 @@
       <c r="J38" s="31"/>
     </row>
     <row r="39" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -3538,17 +6243,17 @@
       <c r="J41" s="31"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="31"/>
@@ -3562,85 +6267,85 @@
       <c r="J43" s="31"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="117"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
     </row>
     <row r="49" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
       <c r="K49" s="29"/>
     </row>
     <row r="50" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
       <c r="K50" s="29"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -3684,15 +6389,15 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
       <c r="K52" s="1"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -3705,15 +6410,15 @@
       <c r="T52" s="7"/>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
@@ -3725,15 +6430,15 @@
       <c r="T53" s="7"/>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -3928,8 +6633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S517"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32339,135 +35044,357 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3342C3-7EF8-452F-95D6-227E985BED7D}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="119"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
-      <c r="B3" s="121"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="B2" s="57"/>
+      <c r="D2" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="D3" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="121">
+      <c r="B4" s="118">
         <v>5.0513565891472787</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="D4" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="113">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="121">
+      <c r="B5" s="59">
         <v>4.8137941609467334E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="D5" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="113">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="121">
+      <c r="B6" s="119">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="120" t="s">
+      <c r="D6" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="113">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B7" s="120">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="D7" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="113">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="121">
+      <c r="B8" s="59">
         <v>1.0934838334226011</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
+      <c r="D8" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="113">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="121">
+      <c r="B9" s="59">
         <v>1.1957068939565871</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="D9" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="115">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="121">
+      <c r="B10" s="59">
         <v>0.25478877278458656</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="59">
         <v>-0.61404719057795309</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="59">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="E12" s="108"/>
+      <c r="F12" s="109"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="59">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="121">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="s">
+      <c r="B14" s="59">
+        <v>7</v>
+      </c>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="59">
         <v>2606.4999999999959</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122" t="s">
+      <c r="D15" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="107"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="123">
+      <c r="B16" s="61">
+        <v>516</v>
+      </c>
+      <c r="D16" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="113">
+        <v>3</v>
+      </c>
+      <c r="F16" s="107"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="125">
+        <f>COUNTIF('Base 1'!L:L, "&lt;= 5,1")</f>
+        <v>254</v>
+      </c>
+      <c r="D18" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="125">
+        <f>COUNTIF('Base 1'!L:L, "&lt;= 5,2")</f>
+        <v>280</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="125">
+        <f>COUNTIF('Base 1'!L:L, "&lt;= 5,3")</f>
+        <v>307</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="113">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="113">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="113">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="113">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="113">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="113">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="113">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="117">
         <v>516</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f96af7b-f6a7-4527-806b-a1167a39af4c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e857c837-65f1-4774-9197-658e0eb27a8b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005126D5E415BAAE4E81CFB5C67BF31910" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8ff5d53c6eada6961299165298a02e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e857c837-65f1-4774-9197-658e0eb27a8b" xmlns:ns3="9f96af7b-f6a7-4527-806b-a1167a39af4c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1ceae36aee9e7857314cc6417c27695" ns2:_="" ns3:_="">
     <xsd:import namespace="e857c837-65f1-4774-9197-658e0eb27a8b"/>
@@ -32704,27 +35631,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E83C7E7-46C6-4E03-9BFB-ED8D57E3336D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f96af7b-f6a7-4527-806b-a1167a39af4c"/>
+    <ds:schemaRef ds:uri="e857c837-65f1-4774-9197-658e0eb27a8b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f96af7b-f6a7-4527-806b-a1167a39af4c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e857c837-65f1-4774-9197-658e0eb27a8b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C829055B-9D0A-42C7-9EFA-B30B4254D6CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F51BE936-446E-44B1-AF24-673093FB4C25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32741,23 +35667,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C829055B-9D0A-42C7-9EFA-B30B4254D6CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E83C7E7-46C6-4E03-9BFB-ED8D57E3336D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9f96af7b-f6a7-4527-806b-a1167a39af4c"/>
-    <ds:schemaRef ds:uri="e857c837-65f1-4774-9197-658e0eb27a8b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>